--- a/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
+++ b/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>~1/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,39 +131,15 @@
     <t>플레이어 캐릭터 애니메이션 제작</t>
   </si>
   <si>
-    <t>무기 및 몬스터 모델링</t>
-  </si>
-  <si>
-    <t>몬스터 UV 작업</t>
-  </si>
-  <si>
     <t>몬스터 애니메이션 제작 1</t>
   </si>
   <si>
     <t>몬스터 애니메이션 제작 2</t>
   </si>
   <si>
-    <t>설치형 오브젝트 모델링</t>
-  </si>
-  <si>
-    <t>설치형 오브젝트 UV 작업</t>
-  </si>
-  <si>
-    <t>오브젝트 중 필요한 애니메이션 제작</t>
-  </si>
-  <si>
-    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 및 블렌드, 몽타쥬 등 적용</t>
-  </si>
-  <si>
-    <t>엔진 레벨에 적용</t>
-  </si>
-  <si>
     <t>디테일 작업 시작, 모델들(캐릭터, 몬스터, 오브젝트)의 하이폴리 제작</t>
   </si>
   <si>
-    <t>하이폴리 제작, 노말맵 적용 및 애니메이션 디테일 보강</t>
-  </si>
-  <si>
     <t>맵 오브젝트 제작 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +149,34 @@
   </si>
   <si>
     <t>플레이어 캐릭터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 몬스터 모델링 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 몬스터 모델링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 몬스터 UV 작업 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 몬스터 UV 작업 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에서 블루프린트로 애니메이션 몽타쥬 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -757,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13"/>
       <c r="H6" s="2"/>
@@ -767,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -785,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -794,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -803,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -812,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -821,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -830,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -839,25 +843,25 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -866,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E18" s="13"/>
     </row>
@@ -875,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="14"/>
     </row>
@@ -904,5 +908,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
+++ b/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
@@ -19,23 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>~1/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,52 +120,59 @@
     <t>플레이어 캐릭터 애니메이션 제작</t>
   </si>
   <si>
+    <t>맵 오브젝트 제작 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 일반 몬스터 모델링 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 일반 몬스터 모델링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>몬스터 애니메이션 제작 1</t>
-  </si>
-  <si>
-    <t>몬스터 애니메이션 제작 2</t>
-  </si>
-  <si>
-    <t>디테일 작업 시작, 모델들(캐릭터, 몬스터, 오브젝트)의 하이폴리 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션 제작 2, 수집형 오브젝트 추가, 일부 맵 오브젝트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 애니메이션 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 기존 애니메이션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 신규패턴 애니메이션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맵 오브젝트 제작 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 오브젝트 제작 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 캐릭터 모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 모델링 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 모델링 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 UV 작업 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 UV 작업 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엔진에서 블루프린트로 애니메이션 몽타쥬 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +193,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +384,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,7 +749,7 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="12"/>
@@ -751,8 +758,8 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
+      <c r="C5" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -760,8 +767,8 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="13"/>
       <c r="H6" s="2"/>
@@ -770,8 +777,8 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -779,7 +786,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="12"/>
@@ -788,8 +795,8 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+      <c r="C9" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -797,8 +804,8 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
+      <c r="C10" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -806,17 +813,17 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+      <c r="C11" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -824,7 +831,7 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="13"/>
@@ -833,26 +840,26 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
+      <c r="C15" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
+      <c r="C16" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -860,8 +867,8 @@
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
+      <c r="C17" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="13"/>
     </row>
@@ -869,8 +876,8 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
+      <c r="C18" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="13"/>
     </row>
@@ -878,8 +885,8 @@
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+      <c r="C19" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="14"/>
     </row>

--- a/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
+++ b/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>~1/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,15 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진에서 블루프린트로 애니메이션 몽타쥬 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
+    <t>장애물 기능 블루프린트로 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,7 +848,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -865,21 +857,21 @@
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="14"/>
     </row>

--- a/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
+++ b/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>~1/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,44 +131,59 @@
     <t>플레이어 캐릭터 애니메이션 제작</t>
   </si>
   <si>
+    <t>맵 오브젝트 제작 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 오브젝트 제작 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 일반 몬스터 모델링 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 및 일반 몬스터 모델링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>몬스터 애니메이션 제작 1</t>
-  </si>
-  <si>
-    <t>몬스터 애니메이션 제작 2</t>
-  </si>
-  <si>
-    <t>디테일 작업 시작, 모델들(캐릭터, 몬스터, 오브젝트)의 하이폴리 제작</t>
-  </si>
-  <si>
-    <t>맵 오브젝트 제작 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 오브젝트 제작 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 캐릭터 모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 모델링 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 모델링 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 UV 작업 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 및 몬스터 UV 작업 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 기능 블루프린트로 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션 제작 2, 수집형 오브젝트 추가, 일부 맵 오브젝트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 애니메이션 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 기존 애니메이션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 신규패턴 애니메이션 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에서 블루프린트로 애니메이션 몽타쥬 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +204,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +395,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +760,7 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="12"/>
@@ -743,8 +769,8 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
+      <c r="C5" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -752,8 +778,8 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
+      <c r="C6" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="13"/>
       <c r="H6" s="2"/>
@@ -762,8 +788,8 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -771,7 +797,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="12"/>
@@ -780,8 +806,8 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+      <c r="C9" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -789,8 +815,8 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -798,17 +824,17 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -816,8 +842,8 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -825,53 +851,53 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
+      <c r="C14" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
+      <c r="C15" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
+      <c r="C16" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
+      <c r="C17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
+      <c r="C19" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="14"/>
     </row>

--- a/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
+++ b/작업일지(박재윤)/개인세분화진도표(2017182014박재윤).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>~1/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,15 +175,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업물 확인 및 검토, 엔진에서 블루프린트로 애니메이션 상태머신 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진에서 블루프린트로 애니메이션 블렌드 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔진에서 블루프린트로 애니메이션 몽타쥬 적용</t>
+    <t>장애물 기능 블루프린트로 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,9 +390,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,189 +720,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
